--- a/Exercise/status /python key codes.xlsx
+++ b/Exercise/status /python key codes.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang/Documents/GitHub/Pandas/Exercise/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang/Documents/GitHub/Pandas/Exercise/status /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19F394E2-91EF-A64E-AA0B-DECAE2802B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4391C565-9E41-354A-9E7D-1106D14E8114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{4F000839-AB86-B049-B359-1A9D7078B801}"/>
+    <workbookView xWindow="4680" yWindow="3680" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{4F000839-AB86-B049-B359-1A9D7078B801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Python</t>
   </si>
@@ -45,19 +46,40 @@
   </si>
   <si>
     <t xml:space="preserve">엑셀 </t>
+  </si>
+  <si>
+    <t>담당자가 물었습니다.</t>
+  </si>
+  <si>
+    <t>저희 플랫폼 누적 대출건이 2095건이나 되는군요!</t>
+  </si>
+  <si>
+    <t>그 대출을 받아간 분들의 성별, 연령, 지역, 직업 분포를 알 수 있을까요?</t>
+  </si>
+  <si>
+    <t>카테고리가 너무 많으면 분석가님이 적당히 추려주세요.</t>
+  </si>
+  <si>
+    <t>그 밖에 중요해 보이는 정보가 더 있다면 같이 정리해주시면 감사하겠습니다</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950614EC-FAA9-C84F-978D-70CAD93B06C0}">
   <dimension ref="B1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -426,4 +449,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFB28D4-45C6-804C-84EC-08B307AEEABA}">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="81.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>